--- a/src/main/java/com/domain/excelfile/testcase.xlsx
+++ b/src/main/java/com/domain/excelfile/testcase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Autoapi\src\main\java\com\domain\excelfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_space\API_PRO\src\main\java\com\domain\excelfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB5105-FA10-4EAA-9444-8002C2A8E098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1394D91F-C1F2-4946-98D3-52E4A5FEADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A018253681" sheetId="2" r:id="rId1"/>
     <sheet name="A018253682" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="44">
   <si>
     <t>测试用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,18 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建联系人邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建联系人手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证页面关键字1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建联系人用例001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>peihaohao2021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,74 +80,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhangsan11@sougou.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhangsan13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建联系人用例002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建联系人用例003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建联系人用例004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan12@sougou.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan13@sougou.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan14@sougou.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +151,38 @@
   </si>
   <si>
     <t>240</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/postjson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -290,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,7 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4D601-C0E1-4831-B5BC-E7ABED807CEA}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -600,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -612,570 +567,570 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1187,200 +1142,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.4140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.08203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.9140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4">
-        <v>18329925478</v>
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4">
-        <v>18329925479</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4">
-        <v>18329925480</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="4">
-        <v>18329925471</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4"/>
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
